--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-evaluation-reference.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-evaluation-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T09:55:45+00:00</t>
+    <t>2025-12-17T14:41:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-evaluation-reference.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-evaluation-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:41:39+00:00</t>
+    <t>2025-12-18T10:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
